--- a/database/sidis/expdata/3701.xlsx
+++ b/database/sidis/expdata/3701.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physicsstudentresearch/Desktop/Research Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuamiller/Desktop/GIT/jam3d/database/sidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40099B1-3354-E140-A19A-4D52B85B3E8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B65E9A-1BC4-2747-93CD-8D01DE31010A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3460" yWindow="3260" windowWidth="27640" windowHeight="16020" xr2:uid="{5D1A5C48-C0BC-6241-89EF-14937ED5EE47}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
   <si>
     <t>AUTcollins</t>
   </si>
@@ -82,13 +82,16 @@
   </si>
   <si>
     <t>zmax</t>
+  </si>
+  <si>
+    <t>depol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -458,15 +461,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B183E4F-98B6-F84F-873C-7726D5740A9C}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="P2" sqref="P2:P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -512,8 +515,11 @@
       <c r="O1" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="P1" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2.44</v>
       </c>
@@ -559,8 +565,11 @@
       <c r="O2">
         <v>0.26</v>
       </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2.46</v>
       </c>
@@ -606,8 +615,11 @@
       <c r="O3">
         <v>0.32</v>
       </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2.4500000000000002</v>
       </c>
@@ -653,8 +665,11 @@
       <c r="O4">
         <v>0.38</v>
       </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2.4500000000000002</v>
       </c>
@@ -700,8 +715,11 @@
       <c r="O5">
         <v>0.45</v>
       </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2.44</v>
       </c>
@@ -747,8 +765,11 @@
       <c r="O6">
         <v>0.52</v>
       </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2.4300000000000002</v>
       </c>
@@ -794,8 +815,11 @@
       <c r="O7">
         <v>0.6</v>
       </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2.41</v>
       </c>
@@ -841,8 +865,11 @@
       <c r="O8">
         <v>0.7</v>
       </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2.41</v>
       </c>
@@ -888,8 +915,11 @@
       <c r="O9">
         <v>0.76</v>
       </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2.35</v>
       </c>
@@ -935,8 +965,11 @@
       <c r="O10">
         <v>0.84</v>
       </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2.31</v>
       </c>
@@ -981,6 +1014,9 @@
       </c>
       <c r="O11">
         <v>1.2</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
